--- a/3.results/model_selection/sterne_caugek_1_test_log_quad.xlsx
+++ b/3.results/model_selection/sterne_caugek_1_test_log_quad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF50CA-93F0-4509-AA10-6B4B39AA3E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD123271-3ADF-4866-8FF0-56DB80116D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_winter_SST" sheetId="1" r:id="rId1"/>
@@ -4528,8 +4528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,11 +7252,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
